--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_36.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_36.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,672 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1366459627329192</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/b7'], ['C', 'G/3', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1613636363636363</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(34.041, 38.588), (41.655, 46.22)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#'], ['C:min', 'G:maj/B', 'C:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(75.58, 86.06), (0.78, 23.84)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:21.940000', '0:00:25.360000'), ('0:00:11.820000', '0:00:16.400000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:02', '0:00:04.320000'), ('0:00:16.240000', '0:00:19.080000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2976190476190476</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_283</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2083333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['E:min', 'A', 'D', 'D/2']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(61.32, 63.7)]</t>
+          <t>[['A:min', 'D', 'G', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(75.8, 79.6)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:51.315598', '0:00:57.251357')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:30.378072', '0:00:38.911405')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2435064935064935</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F']]</t>
-        </is>
+          <t>jaah_74</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_15</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04305555555555556</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb', 'Eb'], ['F:min7', 'Bb:7', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(51.69, 55.72)]</t>
+          <t>[['G:7', 'C', 'C', 'C'], ['D:min7', 'G:7', 'C', 'C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(6.74, 12.16)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:18.070000', '0:00:20.040000'), ('0:00:17.680000', '0:00:19.250000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:23.270000', '0:00:25.980000'), ('0:00:11.260000', '0:00:14.360000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5397727272727273</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_279</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2355769230769231</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>[['C:maj', 'G/3', 'C:maj', 'G/3', 'C:maj', 'G/3', 'C:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
+          <t>[['B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(27.0, 49.86)]</t>
+          <t>[('0:02:37.019000', '0:02:44.660000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:10.200000', '0:00:15.040000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(19.5, 49.86)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(30.02, 44.28)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:03.840000', '0:01:05.240000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:23.260000', '0:00:26.800000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2102564102564103</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jaah_32</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1254237288135593</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>[['C', 'C/5', 'C']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(128.16, 129.88)]</t>
+          <t>[['G', 'G', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(32.874217, 40.885102)]</t>
+          <t>[('0:02:39.135941', '0:02:55.912358')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:03.010000', '0:00:07.270000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1613636363636363</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#'], ['A#:min', 'F:maj/A', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(2.6, 4.5), (15.32, 17.86)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(26.96, 30.84), (15.06, 20.56)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_65</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.275</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:min', 'C:min', 'D:hdim7/C']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F#:min', 'F#:min', 'B:min(6)']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(17.2, 24.68)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(74.838, 79.91)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:25.720000', '0:00:45.260000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_87</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1848837209302326</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E', 'A'], ['E', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D'], ['A', 'A', 'D']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(13.38418, 18.719002), (122.976598, 130.383764)]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(66.427052, 71.593492), (59.508331, 64.685555)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:00:11.060000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_14</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2502443792766373</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab', 'Ab', 'Ab', 'Eb:7', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab', 'Ab', 'Ab', 'Eb:7', 'Eb:7', 'Ab']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(82.34, 90.9)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(22.01, 35.72)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:00.280000', '0:01:42.520000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:01.900000', '0:01:41.900000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1189809630459127</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'D', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E', 'A', 'D']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(16.069954, 22.954671)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(51.315598, 61.516031)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:21.280000', '0:00:41.800000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1485507246376812</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3540229885057471</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(69.36, 73.2)]</t>
+          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(7.646772, 12.917702)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:38.841000', '0:00:47.891000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:21.900000', '0:00:52.440000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1208333333333333</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A', 'D/5', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.421247, 4.824512)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(60.76, 64.36)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:21.620000', '0:00:25.320000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:05.440000', '0:01:09.180000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_192</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1144736842105263</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E', 'G#', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C', 'E', 'A:min']]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(58.063326, 63.24456)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(69.817165, 74.008366)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.680000', '0:00:10.700000'), ('0:01:25.700000', '0:01:34.320000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09526209677419355</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D/3', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G/3', 'G/#4', 'D']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(92.073492, 95.022426)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(56.324374, 59.031496)]</t>
+          <t>[('0:00:00.820000', '0:02:25.840000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_79</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_183</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3348837209302326</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(7.284457, 20.438561)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(128.54, 132.84)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:01.920000', '0:02:29.880000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
